--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://templestowecvicedu-my.sharepoint.com/personal/ric0016_tc_vic_edu_au/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://templestowecvicedu-my.sharepoint.com/personal/ric0016_tc_vic_edu_au/Documents/Desktop/Documents/GitHub/Rohan_Chess_Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{71E6F730-4C8B-4834-B52F-814EDD5A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDEDC23A-EB1F-46C0-AE1B-B20A60D5B887}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{71E6F730-4C8B-4834-B52F-814EDD5A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1F95C19-733E-4E23-B4D7-63C74A5F776C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
@@ -114,7 +114,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -472,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42F3CF-5A9F-4664-9D92-4BFF33076767}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="75" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,12 +723,20 @@
       <c r="B21" s="1">
         <v>1.8</v>
       </c>
+      <c r="R21">
+        <f>428-482</f>
+        <v>-54</v>
+      </c>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>1.9</v>
       </c>
+      <c r="R22">
+        <f>428-482</f>
+        <v>-54</v>
+      </c>
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.3">
@@ -788,7 +803,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:A1048576 A1 W3:XFD21 X22:XFD22 C3:U21 C22:Q22 S22:U22 C23:XFD1048576">
+  <conditionalFormatting sqref="C3:DB732">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-750"/>

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://templestowecvicedu-my.sharepoint.com/personal/ric0016_tc_vic_edu_au/Documents/Desktop/Documents/GitHub/Rohan_Chess_Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{71E6F730-4C8B-4834-B52F-814EDD5A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1F95C19-733E-4E23-B4D7-63C74A5F776C}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{71E6F730-4C8B-4834-B52F-814EDD5A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7746B8B0-CE65-48B6-A803-2A6FCFD43FE2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Versions:</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>*Depth now starts at 4 for first 5 seconds</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>2.5.1 Fast</t>
+  </si>
+  <si>
+    <t>Fast means that depth is just 3</t>
   </si>
 </sst>
 </file>
@@ -114,14 +123,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -477,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42F3CF-5A9F-4664-9D92-4BFF33076767}">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="75" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +491,7 @@
     <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -497,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,8 +578,14 @@
       <c r="AA2" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -590,7 +598,7 @@
         <v>-990</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -603,7 +611,7 @@
         <v>-998</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>0.3</v>
       </c>
@@ -613,7 +621,7 @@
         <v>-980</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>0.4</v>
       </c>
@@ -623,7 +631,7 @@
         <v>-462</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>0.5</v>
       </c>
@@ -633,7 +641,7 @@
         <v>-428</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>0.6</v>
       </c>
@@ -643,7 +651,7 @@
         <v>-521</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>0.7</v>
       </c>
@@ -653,73 +661,73 @@
         <v>-208</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>0.8</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>0.9</v>
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>1.2</v>
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>1.3</v>
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>1.4</v>
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1.5</v>
       </c>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>1.6</v>
       </c>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>1.7</v>
       </c>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>1.8</v>
       </c>
@@ -729,7 +737,7 @@
       </c>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>1.9</v>
       </c>
@@ -739,7 +747,7 @@
       </c>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -749,7 +757,7 @@
       </c>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>2.1</v>
       </c>
@@ -763,7 +771,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -773,7 +781,7 @@
       </c>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -783,7 +791,7 @@
       </c>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>2.4</v>
       </c>
@@ -797,9 +805,29 @@
       </c>
       <c r="AA27" s="2"/>
     </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB28" s="2"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29">
+        <f>(269-193)*2</f>
+        <v>152</v>
+      </c>
+    </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://templestowecvicedu-my.sharepoint.com/personal/ric0016_tc_vic_edu_au/Documents/Desktop/Documents/GitHub/Rohan_Chess_Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{71E6F730-4C8B-4834-B52F-814EDD5A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7746B8B0-CE65-48B6-A803-2A6FCFD43FE2}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{71E6F730-4C8B-4834-B52F-814EDD5A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D0A6E08-A547-4AE8-A8DC-4F80079C24A7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Versions:</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Fast means that depth is just 3</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>2.6.2</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42F3CF-5A9F-4664-9D92-4BFF33076767}">
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +497,7 @@
     <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -499,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,8 +590,17 @@
       <c r="AC2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD2" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -598,7 +613,7 @@
         <v>-990</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -611,7 +626,7 @@
         <v>-998</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>0.3</v>
       </c>
@@ -621,7 +636,7 @@
         <v>-980</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>0.4</v>
       </c>
@@ -631,7 +646,7 @@
         <v>-462</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>0.5</v>
       </c>
@@ -641,7 +656,7 @@
         <v>-428</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>0.6</v>
       </c>
@@ -651,7 +666,7 @@
         <v>-521</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>0.7</v>
       </c>
@@ -661,73 +676,73 @@
         <v>-208</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>0.8</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>0.9</v>
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>1.2</v>
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>1.3</v>
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>1.4</v>
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1.5</v>
       </c>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>1.6</v>
       </c>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>1.7</v>
       </c>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>1.8</v>
       </c>
@@ -737,7 +752,7 @@
       </c>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>1.9</v>
       </c>
@@ -747,7 +762,7 @@
       </c>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -757,7 +772,7 @@
       </c>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>2.1</v>
       </c>
@@ -771,7 +786,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -781,7 +796,7 @@
       </c>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -791,7 +806,7 @@
       </c>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>2.4</v>
       </c>
@@ -805,13 +820,13 @@
       </c>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
@@ -819,6 +834,29 @@
         <f>(269-193)*2</f>
         <v>152</v>
       </c>
+      <c r="AC29" s="2"/>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE31" s="2"/>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE32">
+        <f>(446-440)</f>
+        <v>6</v>
+      </c>
+      <c r="AF32" s="2"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://templestowecvicedu-my.sharepoint.com/personal/ric0016_tc_vic_edu_au/Documents/Desktop/Documents/GitHub/Rohan_Chess_Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="13_ncr:1_{71E6F730-4C8B-4834-B52F-814EDD5A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D0A6E08-A547-4AE8-A8DC-4F80079C24A7}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{71E6F730-4C8B-4834-B52F-814EDD5A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A0AD038-9B47-4B55-91D1-C2730FC9F2C3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
+    <workbookView xWindow="2712" yWindow="1944" windowWidth="17280" windowHeight="8880" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42F3CF-5A9F-4664-9D92-4BFF33076767}">
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="O18" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,8 +849,8 @@
         <v>12</v>
       </c>
       <c r="AE32">
-        <f>(446-440)</f>
-        <v>6</v>
+        <f>(422-407)</f>
+        <v>15</v>
       </c>
       <c r="AF32" s="2"/>
     </row>

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://templestowecvicedu-my.sharepoint.com/personal/ric0016_tc_vic_edu_au/Documents/Desktop/Documents/GitHub/Rohan_Chess_Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{71E6F730-4C8B-4834-B52F-814EDD5A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A0AD038-9B47-4B55-91D1-C2730FC9F2C3}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{71E6F730-4C8B-4834-B52F-814EDD5A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5769302C-8A84-4551-8F5A-80A2A5E41F96}"/>
   <bookViews>
-    <workbookView xWindow="2712" yWindow="1944" windowWidth="17280" windowHeight="8880" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Versions:</t>
   </si>
@@ -50,31 +50,13 @@
     <t>Read first:</t>
   </si>
   <si>
-    <t>1.5.1</t>
-  </si>
-  <si>
     <t>D3: (500)*2 or 1000 Games</t>
-  </si>
-  <si>
-    <t>2.3*</t>
   </si>
   <si>
     <t>*Depth now starts at 4 for first 5 seconds</t>
   </si>
   <si>
-    <t>2.5.1</t>
-  </si>
-  <si>
-    <t>2.5.1 Fast</t>
-  </si>
-  <si>
     <t>Fast means that depth is just 3</t>
-  </si>
-  <si>
-    <t>2.6.1</t>
-  </si>
-  <si>
-    <t>2.6.2</t>
   </si>
 </sst>
 </file>
@@ -116,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -125,11 +107,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -162,6 +152,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42F3CF-5A9F-4664-9D92-4BFF33076767}">
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O18" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,15 +487,15 @@
     <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,53 +544,35 @@
       <c r="Q2" s="1">
         <v>1.5</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>4</v>
+      <c r="R2" s="1">
+        <v>1.6</v>
       </c>
       <c r="S2" s="1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T2" s="1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U2" s="1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V2" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W2" s="1">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X2" s="1">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z2" s="1">
         <v>2.4</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -604,12 +580,12 @@
         <v>0.1</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="R3">
+      <c r="N3">
         <f>(0-495)*2</f>
         <v>-990</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -617,100 +593,96 @@
         <v>0.2</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="R4">
+      <c r="N4">
         <f>(0-499)*2</f>
         <v>-998</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>0.3</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="R5">
+      <c r="N5">
         <f>(0-490)*2</f>
         <v>-980</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>0.4</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="R6">
+      <c r="N6">
         <f>28-490</f>
         <v>-462</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>0.5</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="R7">
-        <f>(19-233)*2</f>
-        <v>-428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <f>359-567</f>
+        <v>-208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>0.6</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="R8">
-        <f>19-540</f>
-        <v>-521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>0.7</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="R9">
-        <f>359-567</f>
-        <v>-208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>0.8</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>0.9</v>
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>1.2</v>
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>1.3</v>
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>1.4</v>
+      </c>
+      <c r="N16">
+        <f>428-482</f>
+        <v>-54</v>
       </c>
       <c r="P16" s="2"/>
     </row>
@@ -718,166 +690,116 @@
       <c r="B17" s="1">
         <v>1.5</v>
       </c>
+      <c r="N17">
+        <f>(252-206)*2</f>
+        <v>92</v>
+      </c>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>4</v>
+      <c r="B18" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="N18">
+        <f>514-403</f>
+        <v>111</v>
       </c>
       <c r="R18" s="2"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="R21">
-        <f>428-482</f>
-        <v>-54</v>
+        <v>1.9</v>
+      </c>
+      <c r="N21">
+        <f>(269-193)*2</f>
+        <v>152</v>
       </c>
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="R22">
-        <f>428-482</f>
-        <v>-54</v>
+        <v>2</v>
       </c>
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="R23">
-        <f>(252-206)*2</f>
-        <v>92</v>
+        <v>2.1</v>
       </c>
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="R24">
-        <f>514-403</f>
-        <v>111</v>
-      </c>
-      <c r="W24">
-        <f>(251-213)*2</f>
-        <v>76</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R25">
-        <f>(258-204)*2</f>
-        <v>108</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Y25" s="2"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R26">
-        <f>815-124</f>
-        <v>691</v>
+      <c r="B26" s="1">
+        <v>2.4</v>
       </c>
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="R27">
-        <f>855-79</f>
-        <v>776</v>
-      </c>
-      <c r="Z27">
-        <f>(200-127)*2</f>
-        <v>146</v>
-      </c>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="4"/>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB28" s="2"/>
+      <c r="AB28" s="4"/>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R29">
-        <f>(269-193)*2</f>
-        <v>152</v>
-      </c>
-      <c r="AC29" s="2"/>
+      <c r="AC29" s="4"/>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="AD30" s="2"/>
+      <c r="AD30" s="4"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE31" s="2"/>
+      <c r="AE31" s="4"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE32">
-        <f>(422-407)</f>
-        <v>15</v>
-      </c>
-      <c r="AF32" s="2"/>
+      <c r="AF32" s="4"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:DB732">
+  <conditionalFormatting sqref="C9:Q9 S9:DB9 C8:DB8 S3:DB7 C3:Q7 C35:DB732 S21:DB34 C30:Q34 C10:DB20 N27 C22:M29 O22:Q29 C21:Q21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="num" val="-750"/>
+        <cfvo type="num" val="-650"/>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="750"/>
+        <cfvo type="num" val="650"/>
         <color rgb="FFA20000"/>
         <color rgb="FFFFFF3B"/>
         <color rgb="FF0F9325"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:U16 C3:Q17 T17:U17 S18 T19:U19 C19:Q21 S20:U21">
+  <conditionalFormatting sqref="S3:U16 T17:U17 S18 T19:U19 S20:U21 C19:Q20 C21:M21 O21:Q21 C3:Q17">
     <cfRule type="cellIs" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://templestowecvicedu-my.sharepoint.com/personal/ric0016_tc_vic_edu_au/Documents/Desktop/Documents/GitHub/Rohan_Chess_Bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Rohan_Chess_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{71E6F730-4C8B-4834-B52F-814EDD5A6C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5769302C-8A84-4551-8F5A-80A2A5E41F96}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8086DA32-86B3-4B15-B3A5-51ECFE3A19A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
+    <workbookView xWindow="1548" yWindow="1200" windowWidth="23040" windowHeight="12120" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Versions:</t>
   </si>
@@ -53,20 +53,56 @@
     <t>D3: (500)*2 or 1000 Games</t>
   </si>
   <si>
-    <t>*Depth now starts at 4 for first 5 seconds</t>
-  </si>
-  <si>
-    <t>Fast means that depth is just 3</t>
+    <t>v2.5 depth comparison:</t>
+  </si>
+  <si>
+    <t>2v1</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>100 games</t>
+  </si>
+  <si>
+    <t>3v2</t>
+  </si>
+  <si>
+    <t>4v3</t>
+  </si>
+  <si>
+    <t>/100</t>
+  </si>
+  <si>
+    <t>5v4</t>
+  </si>
+  <si>
+    <t>6v5</t>
+  </si>
+  <si>
+    <t>7v6</t>
+  </si>
+  <si>
+    <t>8v7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -107,19 +143,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -152,10 +180,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,16 +499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42F3CF-5A9F-4664-9D92-4BFF33076767}">
-  <dimension ref="A1:AF46"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -686,7 +711,7 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1.5</v>
       </c>
@@ -696,7 +721,7 @@
       </c>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>1.6</v>
       </c>
@@ -706,19 +731,19 @@
       </c>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>1.7</v>
       </c>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>1.8</v>
       </c>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>1.9</v>
       </c>
@@ -728,66 +753,126 @@
       </c>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>2</v>
       </c>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>2.1</v>
       </c>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>2.4</v>
       </c>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="AB28" s="4"/>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="AC29" s="4"/>
-    </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="AD30" s="4"/>
-    </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="AE31" s="4"/>
-    </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="AF32" s="4"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>6</v>
       </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1">
+        <f>81-12</f>
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C9:Q9 S9:DB9 C8:DB8 S3:DB7 C3:Q7 C35:DB732 S21:DB34 C30:Q34 C10:DB20 N27 C22:M29 O22:Q29 C21:Q21">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C9:Q9 S9:DB9 C8:DB8 S3:DB7 C3:Q7 S21:DB34 C30:Q34 C10:DB20 N27 C22:M29 O22:Q29 C21:Q21 C35:DB732">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-650"/>
@@ -799,7 +884,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:U16 T17:U17 S18 T19:U19 S20:U21 C19:Q20 C21:M21 O21:Q21 C3:Q17">
+  <conditionalFormatting sqref="S3:U16 C3:Q17 T17:U17 S18 T19:U19 C19:Q20 S20:U21 C21:M21 O21:Q21">
     <cfRule type="cellIs" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Rohan_Chess_Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://templestowecvicedu-my.sharepoint.com/personal/ric0016_tc_vic_edu_au/Documents/Desktop/Documents/GitHub/Rohan_Chess_Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8086DA32-86B3-4B15-B3A5-51ECFE3A19A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8086DA32-86B3-4B15-B3A5-51ECFE3A19A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A416E0A-6720-4C09-8B89-D93CD3454CC7}"/>
   <bookViews>
-    <workbookView xWindow="1548" yWindow="1200" windowWidth="23040" windowHeight="12120" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Versions:</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>8v7</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -501,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42F3CF-5A9F-4664-9D92-4BFF33076767}">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,9 +827,8 @@
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="1">
-        <f>81-12</f>
-        <v>69</v>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://templestowecvicedu-my.sharepoint.com/personal/ric0016_tc_vic_edu_au/Documents/Desktop/Documents/GitHub/Rohan_Chess_Bot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Rohan_Chess_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8086DA32-86B3-4B15-B3A5-51ECFE3A19A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A416E0A-6720-4C09-8B89-D93CD3454CC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75640F87-0B98-4F36-82F4-3B85AA9FCFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Versions:</t>
   </si>
@@ -86,17 +86,35 @@
     <t>7v6</t>
   </si>
   <si>
-    <t>8v7</t>
-  </si>
-  <si>
-    <t>=</t>
+    <t>Big win</t>
+  </si>
+  <si>
+    <t>Huge win</t>
+  </si>
+  <si>
+    <t>Small Win</t>
+  </si>
+  <si>
+    <t>No change!</t>
+  </si>
+  <si>
+    <t>1000 games</t>
+  </si>
+  <si>
+    <t>/1000</t>
+  </si>
+  <si>
+    <t>Untested</t>
+  </si>
+  <si>
+    <t>2 v0.2 depth compare Q depth = 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +128,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +177,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F62E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,11 +212,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -146,8 +244,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -162,6 +291,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD5F62E"/>
       <color rgb="FF0F9325"/>
       <color rgb="FFFFFF3B"/>
       <color rgb="FF089A20"/>
@@ -171,7 +301,6 @@
       <color rgb="FF00864D"/>
       <color rgb="FFA20000"/>
       <color rgb="FF02D0C6"/>
-      <color rgb="FF7A0404"/>
     </mruColors>
   </colors>
   <extLst>
@@ -502,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42F3CF-5A9F-4664-9D92-4BFF33076767}">
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,9 +642,11 @@
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -523,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,8 +730,11 @@
       <c r="Z2" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA2" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -613,7 +747,7 @@
         <v>-990</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -626,7 +760,7 @@
         <v>-998</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>0.3</v>
       </c>
@@ -636,7 +770,7 @@
         <v>-980</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>0.4</v>
       </c>
@@ -646,7 +780,7 @@
         <v>-462</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>0.5</v>
       </c>
@@ -656,55 +790,55 @@
         <v>-208</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>0.6</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>0.7</v>
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>0.8</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>0.9</v>
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>1.2</v>
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>1.3</v>
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>1.4</v>
       </c>
@@ -714,7 +848,7 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>1.5</v>
       </c>
@@ -724,7 +858,7 @@
       </c>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>1.6</v>
       </c>
@@ -734,19 +868,19 @@
       </c>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>1.7</v>
       </c>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>1.8</v>
       </c>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>1.9</v>
       </c>
@@ -756,126 +890,202 @@
       </c>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>2</v>
       </c>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>2.1</v>
       </c>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>2.2999999999999998</v>
       </c>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>2.4</v>
       </c>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
+      <c r="B34" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="8">
+        <f>786-45</f>
+        <v>741</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="8">
+        <f>789-73</f>
+        <v>716</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>17</v>
+      <c r="B36" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="8">
+        <f>690-117</f>
+        <v>573</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
+      <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>14</v>
       </c>
+      <c r="B38" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>15</v>
       </c>
+      <c r="B39" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="C39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C9:Q9 S9:DB9 C8:DB8 S3:DB7 C3:Q7 S21:DB34 C30:Q34 C10:DB20 N27 C22:M29 O22:Q29 C21:Q21 C35:DB732">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C9:Q9 S9:DB9 C8:DB8 S3:DB7 C3:Q7 C30:Q31 C10:DB20 N27 C22:M29 O22:Q29 C21:Q21 C40:DB732 S21:DB34 I35:DB39 I32:Q34 H32:H39 C32:E39">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="-650"/>
         <cfvo type="num" val="0"/>
@@ -886,12 +1096,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:U16 C3:Q17 T17:U17 S18 T19:U19 C19:Q20 S20:U21 C21:M21 O21:Q21">
-    <cfRule type="cellIs" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="G34:G39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="-1000"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1000"/>
+        <color rgb="FFA20000"/>
+        <color rgb="FFFFFF3B"/>
+        <color rgb="FF0F9325"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Rohan_Chess_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75640F87-0B98-4F36-82F4-3B85AA9FCFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A023A4-E743-4C88-A2A6-BF1C6448C723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Versions:</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>2 v0.2 depth compare Q depth = 5</t>
+  </si>
+  <si>
+    <t>2 v0.4 depth compare Q depth = infinite</t>
   </si>
 </sst>
 </file>
@@ -265,7 +268,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyAlignment="1">
@@ -279,15 +282,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -634,7 +629,7 @@
   <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,6 +639,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="10" max="10" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
@@ -940,8 +936,15 @@
       <c r="H32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -957,8 +960,17 @@
       <c r="H33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,15 @@
       <c r="H34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -999,8 +1018,15 @@
       <c r="H35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1020,8 +1046,15 @@
       <c r="H36" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1038,8 +1071,15 @@
       <c r="H37" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1056,8 +1096,15 @@
       <c r="H38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1074,18 +1121,25 @@
       <c r="H39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C9:Q9 S9:DB9 C8:DB8 S3:DB7 C3:Q7 C30:Q31 C10:DB20 N27 C22:M29 O22:Q29 C21:Q21 C40:DB732 S21:DB34 I35:DB39 I32:Q34 H32:H39 C32:E39">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C9:Q9 S9:DB9 C8:DB8 S3:DB7 C3:Q7 C30:Q31 C10:DB20 N27 C22:M29 O22:Q29 C21:Q21 C40:DB732 S21:DB34 H32:I39 C32:E39 M32:Q34 M35:DB39 L32:L39">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="-650"/>
         <cfvo type="num" val="0"/>
@@ -1097,6 +1151,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G39">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="-1000"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1000"/>
+        <color rgb="FFA20000"/>
+        <color rgb="FFFFFF3B"/>
+        <color rgb="FF0F9325"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-1000"/>

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Rohan_Chess_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A023A4-E743-4C88-A2A6-BF1C6448C723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790D4ED5-4CD2-4E0D-94A9-299C7CA001D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Rohan_Chess_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790D4ED5-4CD2-4E0D-94A9-299C7CA001D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61465AB-DD16-4269-B2BB-5E97E96B26FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
@@ -629,7 +629,7 @@
   <dimension ref="A1:AA46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,7 +993,9 @@
       <c r="J34" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="8"/>
+      <c r="K34" s="8">
+        <v>551</v>
+      </c>
       <c r="L34" t="s">
         <v>21</v>
       </c>

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Rohan_Chess_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61465AB-DD16-4269-B2BB-5E97E96B26FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CAB578-ED10-431A-9D22-5C1DBF858A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
+    <workbookView xWindow="7680" yWindow="3336" windowWidth="23040" windowHeight="12120" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,10 @@
     <t>Untested</t>
   </si>
   <si>
-    <t>2 v0.2 depth compare Q depth = 5</t>
-  </si>
-  <si>
     <t>2 v0.4 depth compare Q depth = infinite</t>
+  </si>
+  <si>
+    <t>2 v0.5 depth compare Q depth = infinite</t>
   </si>
 </sst>
 </file>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42F3CF-5A9F-4664-9D92-4BFF33076767}">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +637,7 @@
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="10" max="10" width="25.77734375" customWidth="1"/>
   </cols>
@@ -984,8 +984,8 @@
         <v>6</v>
       </c>
       <c r="G34" s="8">
-        <f>786-45</f>
-        <v>741</v>
+        <f>784-44</f>
+        <v>740</v>
       </c>
       <c r="H34" t="s">
         <v>21</v>
@@ -994,7 +994,8 @@
         <v>6</v>
       </c>
       <c r="K34" s="8">
-        <v>551</v>
+        <f>793-49</f>
+        <v>744</v>
       </c>
       <c r="L34" t="s">
         <v>21</v>
@@ -1014,8 +1015,8 @@
         <v>10</v>
       </c>
       <c r="G35" s="8">
-        <f>789-73</f>
-        <v>716</v>
+        <f>784-82</f>
+        <v>702</v>
       </c>
       <c r="H35" t="s">
         <v>21</v>
@@ -1023,7 +1024,10 @@
       <c r="J35" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="8"/>
+      <c r="K35" s="8">
+        <f>822-81</f>
+        <v>741</v>
+      </c>
       <c r="L35" t="s">
         <v>21</v>
       </c>
@@ -1041,17 +1045,17 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="8">
-        <f>690-117</f>
-        <v>573</v>
-      </c>
+      <c r="G36" s="8"/>
       <c r="H36" t="s">
         <v>21</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="8"/>
+      <c r="K36" s="8">
+        <f>626-204</f>
+        <v>422</v>
+      </c>
       <c r="L36" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1144,19 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C9:Q9 S9:DB9 C8:DB8 S3:DB7 C3:Q7 C30:Q31 C10:DB20 N27 C22:M29 O22:Q29 C21:Q21 C40:DB732 S21:DB34 H32:I39 C32:E39 M32:Q34 M35:DB39 L32:L39">
+  <conditionalFormatting sqref="C9:Q9 S9:DB9 C8:DB8 S3:DB7 C3:Q7 C30:Q31 C10:DB20 N27 C22:M29 O22:Q29 C21:Q21 C40:DB732 S21:DB34 M32:Q34 M35:DB39">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="-650"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="650"/>
+        <color rgb="FFA20000"/>
+        <color rgb="FFFFFF3B"/>
+        <color rgb="FF0F9325"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:E39 H32:I39 L32:L39">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="-650"/>

--- a/MyChessBots.xlsx
+++ b/MyChessBots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\GitHub\Rohan_Chess_Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://templestowecvicedu-my.sharepoint.com/personal/ric0016_tc_vic_edu_au/Documents/Desktop/Coding/Rohan_Chess_Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CAB578-ED10-431A-9D22-5C1DBF858A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{47CAB578-ED10-431A-9D22-5C1DBF858A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A248AC5-5028-49AB-BCC2-425E98C5A0AE}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="3336" windowWidth="23040" windowHeight="12120" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="21164" windowHeight="11291" xr2:uid="{32A029A6-4FBE-439A-A203-1D064A31895A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Versions:</t>
   </si>
@@ -111,6 +111,39 @@
   </si>
   <si>
     <t>2 v0.5 depth compare Q depth = infinite</t>
+  </si>
+  <si>
+    <t>trustbot1.0</t>
+  </si>
+  <si>
+    <t>mybot(2) v3.4.1</t>
+  </si>
+  <si>
+    <t>125games</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>New D5 battles:</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>5s+40ms</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>5+0.05s</t>
+  </si>
+  <si>
+    <t>tied</t>
   </si>
 </sst>
 </file>
@@ -307,6 +340,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,20 +663,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42F3CF-5A9F-4664-9D92-4BFF33076767}">
-  <dimension ref="A1:AA46"/>
+  <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.796875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="25.77734375" customWidth="1"/>
+    <col min="10" max="10" width="25.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
@@ -1085,7 +1123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="14.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1110,7 +1148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="15.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1135,17 +1173,244 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:12" ht="14.75" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3">
+        <f>14-95</f>
+        <v>-81</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
+      <c r="A46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B46" s="3">
+        <f>25-74</f>
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1.2</v>
+      </c>
+      <c r="B47" s="1">
+        <f>32-77</f>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1.3</v>
+      </c>
+      <c r="B48" s="1">
+        <f>33-76</f>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1.4</v>
+      </c>
+      <c r="B49" s="1">
+        <f>(56+16)/182</f>
+        <v>0.39560439560439559</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1.5</v>
+      </c>
+      <c r="B50" s="1">
+        <f>(73+12)/216</f>
+        <v>0.39351851851851855</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1.6</v>
+      </c>
+      <c r="B51" s="1">
+        <f>(85+14)/201</f>
+        <v>0.4925373134328358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1.7</v>
+      </c>
+      <c r="B52" s="1">
+        <f>(87+19)/206</f>
+        <v>0.5145631067961165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1.8</v>
+      </c>
+      <c r="B53" s="1">
+        <f>(222+95/2)/560</f>
+        <v>0.48125000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1.9</v>
+      </c>
+      <c r="B54" s="1">
+        <f>(397+93)/1000</f>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2.1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1.8</v>
+      </c>
+      <c r="B65" s="1">
+        <f>(315+157/2)/755</f>
+        <v>0.52119205298013249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2.1</v>
+      </c>
+      <c r="B68" s="1">
+        <f>(112+22)/252</f>
+        <v>0.53174603174603174</v>
+      </c>
+      <c r="C68" s="1">
+        <f>(95+25)/312</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="D68">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0.1</v>
+      </c>
+      <c r="C69">
+        <f>(117+32)/329</f>
+        <v>0.45288753799392095</v>
+      </c>
+      <c r="D69">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>0.2</v>
+      </c>
+      <c r="C70">
+        <f>(101+24)/250</f>
+        <v>0.5</v>
+      </c>
+      <c r="D70">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0.3</v>
+      </c>
+      <c r="C71">
+        <f>(159+30)/369</f>
+        <v>0.51219512195121952</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0.4</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C9:Q9 S9:DB9 C8:DB8 S3:DB7 C3:Q7 C30:Q31 C10:DB20 N27 C22:M29 O22:Q29 C21:Q21 C40:DB732 S21:DB34 M32:Q34 M35:DB39">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="C32:E39 H32:I39 L32:L39">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="-650"/>
         <cfvo type="num" val="0"/>
@@ -1156,8 +1421,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:E39 H32:I39 L32:L39">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="C9:Q9 S9:DB9 C8:DB8 S3:DB7 C3:Q7 C30:Q31 C10:DB20 N27 C22:M29 O22:Q29 C21:Q21 C40:DB67 S21:DB34 M32:Q34 M35:DB39 C154:DB732 C118:C153 E68:DB153">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="-650"/>
         <cfvo type="num" val="0"/>
@@ -1193,5 +1458,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>